--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>1. using len function and finding remainder by %2  to get the even no. and storing It in a variable 2. using if statements and finding if the no. lies between the range given in the question and storing it in a variable</t>
+  </si>
+  <si>
+    <t>977. Squares of a Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -437,6 +440,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>977. Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>1. find the squares and sorting it. 2. use of bisect function</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +447,12 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>1. find the squares and sorting it. 2. use of bisect function</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>make a dict with difference of number from target andd their index</t>
+  </si>
+  <si>
+    <t>yes - discuss time complex</t>
   </si>
 </sst>
 </file>
@@ -397,17 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -452,6 +463,17 @@
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>yes - discuss time complex</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadane's algo </t>
+  </si>
+  <si>
+    <t>7. Reverse Integer</t>
+  </si>
+  <si>
+    <t>reversing and checking is easy but overflow condition is to be taken care off, can be solved by converting to string also [::-1]</t>
+  </si>
+  <si>
+    <t>20. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>using a stack</t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +494,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -73,7 +73,49 @@
     <t>20. Valid Parentheses</t>
   </si>
   <si>
-    <t>using a stack</t>
+    <t xml:space="preserve">using a stack if we find a valid pair, remove it until the stack is empty </t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>2 pointer approach. Revise string functions</t>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>1480. Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>1108. Defanging an IP Address</t>
+  </si>
+  <si>
+    <t>convert to string &amp; use 2 pointer approch. Reverse the number and compare</t>
+  </si>
+  <si>
+    <t>iterate through the string and add the condition whenever . Is found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a counting variable for keeping the sum putting its value while  iterating through the array. </t>
+  </si>
+  <si>
+    <t>1832. Check if the Sentence Is Pangram</t>
+  </si>
+  <si>
+    <t>make a dictionary and keep updating it. If total keys==26, voila! , can be solved using Set also</t>
+  </si>
+  <si>
+    <t>1688. Count of Matches in Tournament</t>
+  </si>
+  <si>
+    <t>stimulate the odd even condition. If we see the pattern, the ans will be n-1 everytime</t>
+  </si>
+  <si>
+    <t>709. To Lower Case</t>
+  </si>
+  <si>
+    <t>use ord() and chr() functions. There is a diff. of 32 characters b/w small and their capital unicode characters</t>
   </si>
 </sst>
 </file>
@@ -424,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +569,83 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>use ord() and chr() functions. There is a diff. of 32 characters b/w small and their capital unicode characters</t>
+  </si>
+  <si>
+    <t>680. Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>yes one time must</t>
+  </si>
+  <si>
+    <t>2 pointer approach - nested function. If does not match, call the function with updated inputs. Can be solved using string functions also</t>
+  </si>
+  <si>
+    <t>1672. Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>find the maximum of each row</t>
+  </si>
+  <si>
+    <t>1470. Shuffle the Array</t>
+  </si>
+  <si>
+    <t>keep appending alternatingly</t>
   </si>
 </sst>
 </file>
@@ -466,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +667,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>keep appending alternatingly</t>
+  </si>
+  <si>
+    <t>1512. Number of Good Pairs</t>
+  </si>
+  <si>
+    <t>math question. No of pairs=(n*(n-1))//2</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +706,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>math question. No of pairs=(n*(n-1))//2</t>
+  </si>
+  <si>
+    <t>1732. Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>iterate through the list and return the maximum</t>
+  </si>
+  <si>
+    <t>338. Counting Bits</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +729,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -155,13 +156,16 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/discuss/656849/Python-Simple-Solution-with-Clear-Explanation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +177,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,14 +207,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,7 +523,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,12 +759,18 @@
       <c r="A21" t="s">
         <v>45</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>